--- a/Assets/TODO_VR_Project.xlsx
+++ b/Assets/TODO_VR_Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_Stuff\Master_Uni-Abgaben\Semester_2\VR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dschi\Unity_Projects\VR-locomotion-parkour-main\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EC85F7-F7B9-4E3C-B900-41C651D5EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC334A7-6B60-4961-839D-553BF641C94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>TODO</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>gehören zusammen</t>
+  </si>
+  <si>
+    <t>Interactable muss wieder vom boden weg damit man es lösen kann</t>
+  </si>
+  <si>
+    <t>aktuell wieder auf normalen spawn gestellt (06.02.23)</t>
+  </si>
+  <si>
+    <t>Muss noch getest werden</t>
   </si>
 </sst>
 </file>
@@ -166,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +200,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -204,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -215,9 +236,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -228,14 +246,32 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,25 +549,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="72.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="72.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="4" max="4" width="15.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,17 +581,20 @@
       <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -565,15 +605,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -584,63 +625,61 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -648,47 +687,53 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>

--- a/Assets/TODO_VR_Project.xlsx
+++ b/Assets/TODO_VR_Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dschi\Unity_Projects\VR-locomotion-parkour-main\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dschi\Documents\GitHub\VR_Project_1\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC334A7-6B60-4961-839D-553BF641C94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736C2F4E-6B24-42E5-A7CF-D799B2648758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>TODO</t>
   </si>
@@ -150,10 +150,250 @@
     <t>Interactable muss wieder vom boden weg damit man es lösen kann</t>
   </si>
   <si>
-    <t>aktuell wieder auf normalen spawn gestellt (06.02.23)</t>
-  </si>
-  <si>
     <t>Muss noch getest werden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teleport zu start bei Hand extend </t>
+  </si>
+  <si>
+    <t>Lag daran das es auf dem selben button lag, nun auf thumbstick</t>
+  </si>
+  <si>
+    <t>gelöst, siehe 11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motion Sickness </t>
+  </si>
+  <si>
+    <t>kann mit vinets vielleicht gelöst werden</t>
+  </si>
+  <si>
+    <t>Vielleicht Hände zu einem Stab machen</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
+  </si>
+  <si>
+    <t>Pakur umstruckturieren, um besser mit den Händen zu funktionieren</t>
+  </si>
+  <si>
+    <t>Hier kann man einfach Münzen verteilt sammeln und die interactables finden und lösen ohne Timer etc. . Dafür muss dann aktueller Kurs angepasst werden</t>
+  </si>
+  <si>
+    <t>Model für Hände finden</t>
+  </si>
+  <si>
+    <t>Die aktuellen Platformen sehen nicht hübsch aus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überlegen wie man hände und kamera unterschiedlich steuern kann </t>
+  </si>
+  <si>
+    <t>Aktuell liegt es auf dem selben stick und das kann zu problemen führen</t>
+  </si>
+  <si>
+    <t>Wand mit gameplay erklärungen machen</t>
+  </si>
+  <si>
+    <t>nun auf rechten trigger halten und dann bewegen</t>
+  </si>
+  <si>
+    <t>Drücken der Trigger führt dazu das der spieler sich weg drücken kann</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>30.</t>
+  </si>
+  <si>
+    <t>Muss eigentlich Locomotion Technique Script problem sein</t>
+  </si>
+  <si>
+    <t>überarbeitet zu verschiedenen stations</t>
+  </si>
+  <si>
+    <t>Drehen des Spielers mit PlayerTurn functioniert hoch runter nicht richtig</t>
+  </si>
+  <si>
+    <t>Rotation von Spieler führt dazu das man sich mit seinen händen selbst weg drückt</t>
+  </si>
+  <si>
+    <t>Vielleicht einfach wieder entfernen</t>
+  </si>
+  <si>
+    <t>Denke Rotation führt zu crashes</t>
+  </si>
+  <si>
+    <t>vielleicht ist es auch die (Kopf) Animation</t>
+  </si>
+  <si>
+    <t>Präsentation</t>
+  </si>
+  <si>
+    <t>Video für Präsentation</t>
+  </si>
+  <si>
+    <t>hilft spielern zu verstehen was sie machen können, da bei ersten Tests von anderen verwirrung bestand was alles geht</t>
+  </si>
+  <si>
+    <t>wurde entfernt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vielleicht Kamera rotation wirklich nur auf Kamera ausführen und wenn stick losgelassen auch rotation zurücksetzen </t>
+  </si>
+  <si>
+    <t>aktuell vorhanden:     hände beschwören, hände bewegen, kopf drehen</t>
+  </si>
+  <si>
+    <t>Interactable spielbar machen</t>
+  </si>
+  <si>
+    <t>aktuell wieder auf normalen spawn gestellt (06.02.23) Nun auf selbe höhe gespawned (13.02.23)</t>
+  </si>
+  <si>
+    <t>Hände an Controller hände damit sie nicht mehr so hinterher buggen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extendend Hände mit Hand model </t>
+  </si>
+  <si>
+    <t>Hände animieren</t>
+  </si>
+  <si>
+    <t>Vielleicht wenn extended Hände aktiv sind die anderen deantivieren</t>
+  </si>
+  <si>
+    <t>Interaction Spawn fixen, spawned aktuell von der extended Hand position und das ist führt zu komischen fehlern</t>
+  </si>
+  <si>
+    <t>aktuell macht es keinen spaß das interactbale zu lösen, vielleicht hilft grab</t>
+  </si>
+  <si>
+    <t>führt zu komischen rotation artefakten</t>
+  </si>
+  <si>
+    <t>myGrab script gut, aber interactable geht nicht zurück</t>
+  </si>
+  <si>
+    <t>siehe 25</t>
+  </si>
+  <si>
+    <t>lag an dem extra collider am ganzen objekt</t>
+  </si>
+  <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>36.</t>
+  </si>
+  <si>
+    <t>37.</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>39.</t>
+  </si>
+  <si>
+    <t>40.</t>
+  </si>
+  <si>
+    <t>41.</t>
+  </si>
+  <si>
+    <t>42.</t>
+  </si>
+  <si>
+    <t>43.</t>
+  </si>
+  <si>
+    <t>44.</t>
+  </si>
+  <si>
+    <t>45.</t>
+  </si>
+  <si>
+    <t>46.</t>
+  </si>
+  <si>
+    <t>47.</t>
+  </si>
+  <si>
+    <t>48.</t>
+  </si>
+  <si>
+    <t>49.</t>
+  </si>
+  <si>
+    <t>50.</t>
+  </si>
+  <si>
+    <t>51.</t>
+  </si>
+  <si>
+    <t>52.</t>
+  </si>
+  <si>
+    <t>53.</t>
+  </si>
+  <si>
+    <t>Interactable start und end knöpfe mit extend berühren und sollen nicht respawnen wenn hände gespawned werden</t>
+  </si>
+  <si>
+    <t>nun wird im physical script ein main controller bestimmt</t>
+  </si>
+  <si>
+    <t>Alle Interactables auf der Karte spielbar machen wie das erste</t>
+  </si>
+  <si>
+    <t>denke das ist der Collider wieder</t>
+  </si>
+  <si>
+    <t>Beispiel für Interactable Grab</t>
   </si>
 </sst>
 </file>
@@ -175,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,12 +446,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -225,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -249,29 +483,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,26 +780,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="72.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="72.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="6"/>
+    <col min="4" max="4" width="15.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,11 +821,11 @@
       <c r="G1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H1" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,7 +836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -614,7 +845,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -625,7 +856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -636,50 +867,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="E8" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -687,55 +921,367 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/TODO_VR_Project.xlsx
+++ b/Assets/TODO_VR_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dschi\Documents\GitHub\VR_Project_1\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736C2F4E-6B24-42E5-A7CF-D799B2648758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9861F43-2D15-45BD-A0A3-F0065A4B02FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>TODO</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>Beispiel für Interactable Grab</t>
+  </si>
+  <si>
+    <t>zeitlich nicht hinbekommen#</t>
+  </si>
+  <si>
+    <t>ist okay</t>
+  </si>
+  <si>
+    <t>habe nun mehr coins hinzugefügt und den timer entfernt</t>
   </si>
 </sst>
 </file>
@@ -783,7 +792,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,15 +834,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -845,14 +857,14 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -943,15 +955,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>46</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -965,15 +980,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="12" t="s">
         <v>50</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1164,14 +1182,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="3" t="s">
         <v>121</v>
       </c>
     </row>
